--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3340.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3340.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.149323899883582</v>
+        <v>1.369377255439758</v>
       </c>
       <c r="B1">
-        <v>2.745471036271324</v>
+        <v>4.013579368591309</v>
       </c>
       <c r="C1">
-        <v>8.02212026518038</v>
+        <v>3.341412305831909</v>
       </c>
       <c r="D1">
-        <v>2.163461118331053</v>
+        <v>2.263534545898438</v>
       </c>
       <c r="E1">
-        <v>1.2286375567169</v>
+        <v>0.8341880440711975</v>
       </c>
     </row>
   </sheetData>
